--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\PLANAbPiaSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9E1F158-FDBE-4A4D-922F-9E181C0171E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19140" windowHeight="6840"/>
+    <workbookView xWindow="52815" yWindow="975" windowWidth="13785" windowHeight="12690" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,22 @@
   <definedNames>
     <definedName name="acres_per_million_hectares">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="200">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -558,12 +569,81 @@
   </si>
   <si>
     <t>Potential Land Area (acres/year)</t>
+  </si>
+  <si>
+    <t>Texas is</t>
+  </si>
+  <si>
+    <t>Acres</t>
+  </si>
+  <si>
+    <t>Acres available for Aff/Ref in TX based on portion of land area</t>
+  </si>
+  <si>
+    <t>Acres per year to be Aff/Ref in TX based on portion of land area</t>
+  </si>
+  <si>
+    <t>South Region</t>
+  </si>
+  <si>
+    <t>What states are in the South Region?</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Land Area (M acres)</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>TX Portion:</t>
+  </si>
+  <si>
+    <t>TX acres potentially available for forest set-asides per year</t>
+  </si>
+  <si>
+    <t>*Assume this holds for Texas</t>
+  </si>
+  <si>
+    <t>of contiguous US land area</t>
+  </si>
+  <si>
+    <t>forestland</t>
+  </si>
+  <si>
+    <t>acres in TX potentially affected by improved forest management per year,</t>
+  </si>
+  <si>
+    <t>assuming proportions of eligibility hold constant</t>
+  </si>
+  <si>
+    <t>https://www.nrcs.usda.gov/Internet/NRCS_RCA/reports/nri_tx.html</t>
+  </si>
+  <si>
+    <t>Texas Forest Acreage</t>
+  </si>
+  <si>
+    <t>2015 National Resources Inventory - TX</t>
+  </si>
+  <si>
+    <t>USDA National Resources Conservation Service</t>
+  </si>
+  <si>
+    <t>NOTE FOR MAKING TEXAS SPECIFIC</t>
+  </si>
+  <si>
+    <t>Followed national calculation methods, but used Texas forest land cover data where necessary</t>
+  </si>
+  <si>
+    <t>acres in south region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -648,7 +728,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -676,6 +756,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -771,6 +852,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -806,6 +904,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -981,14 +1096,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="57.73046875" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -1080,7 +1197,7 @@
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1134,39 +1251,78 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="6">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{85C8EB15-85C0-8E44-8773-8E4EFDF634E5}"/>
+    <hyperlink ref="B38" r:id="rId5" xr:uid="{653B6ED8-F1D6-5040-82EA-9396D9E07281}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.1328125" customWidth="1"/>
   </cols>
@@ -1262,81 +1418,91 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="20">
         <v>1E-3</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="H31" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" s="8">
+        <v>171900000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <f>A16/A31</f>
         <v>137.72544266692114</v>
@@ -1344,11 +1510,18 @@
       <c r="B32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="I32" s="21">
+        <f>171900000/A15</f>
+        <v>8.6090922161613612E-2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="8">
         <f>A12/A32</f>
         <v>1996726.2015999998</v>
@@ -1356,6 +1529,23 @@
       <c r="B34" t="s">
         <v>25</v>
       </c>
+      <c r="I34" s="8">
+        <f>I32*A12</f>
+        <v>23675003.594443742</v>
+      </c>
+      <c r="J34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="8">
+        <f>A34*I32</f>
+        <v>171900</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1363,27 +1553,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="12" max="12" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -1391,7 +1584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1402,27 +1595,27 @@
         <v>6081</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>B4+(0.5*C4)</f>
         <v>6814.5</v>
@@ -1431,7 +1624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>A11*1000</f>
         <v>6814500</v>
@@ -1439,82 +1632,227 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="L12" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f>(M14+(N14/2))*1000</f>
+        <v>4323500</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="L14" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14">
+        <v>2682</v>
+      </c>
+      <c r="N14">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L16" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18">
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L19" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L23" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L25" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="17">
         <v>0.02</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="L27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M28">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>A12*A27</f>
         <v>136290</v>
       </c>
       <c r="B29" t="s">
         <v>168</v>
+      </c>
+      <c r="L29" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <f>A13*M32*A27</f>
+        <v>26350.280092182235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" t="s">
+        <v>137</v>
+      </c>
+      <c r="M30">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L31" t="s">
+        <v>185</v>
+      </c>
+      <c r="M31">
+        <f>SUM(M18:M30)</f>
+        <v>564.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32">
+        <f>M18/M31</f>
+        <v>0.3047332033327424</v>
       </c>
     </row>
   </sheetData>
@@ -1524,15 +1862,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -1613,6 +1953,11 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1620,19 +1965,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.265625" customWidth="1"/>
-    <col min="2" max="2" width="17.73046875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" style="6"/>
+    <col min="7" max="7" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -2050,7 +2398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="8">
         <f>A32*10^6</f>
         <v>751000000</v>
@@ -2059,12 +2407,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="18">
         <f>AVERAGE('Impr Forest Mgmt'!$B$9:$B$29,'Impr Forest Mgmt'!$D$9:$D$26,'Impr Forest Mgmt'!$F$9:$F$22)/100</f>
         <v>0.87514814814814812</v>
@@ -2073,7 +2421,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="8">
         <f>A33*(1-A36)</f>
         <v>93763740.740740761</v>
@@ -2082,51 +2430,79 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F42" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G43">
+        <f>G42*171900000</f>
+        <v>15041249.999999998</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G44">
+        <f>G43*(1-(D21/100))</f>
+        <v>1203299.9999999993</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F45" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -2153,24 +2529,43 @@
         <v>169</v>
       </c>
     </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <f>G44*A50</f>
+        <v>601649.99999999965</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F45" r:id="rId1" xr:uid="{7CC3C32A-19F7-284A-8EE6-4B6218408392}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.45">
@@ -2288,144 +2683,144 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="C2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="D2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="E2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="F2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="G2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="H2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="I2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="J2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="K2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="L2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="M2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="N2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="O2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="P2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="Q2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="R2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="S2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="T2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="U2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="V2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="W2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="X2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="Y2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="Z2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AA2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AB2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AC2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AD2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AE2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AF2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AG2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AH2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AI2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
       <c r="AJ2">
-        <f>'Set Asides'!$A29</f>
-        <v>136290</v>
+        <f>'Set Asides'!$A30</f>
+        <v>26350.280092182235</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.45">
@@ -2433,144 +2828,144 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="C3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="D3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="E3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="F3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="G3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="H3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="I3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="J3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="K3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="L3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="M3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="N3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="O3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="P3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="Q3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="R3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="S3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="T3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="U3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="V3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="W3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="X3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="Y3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="Z3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AA3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AB3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AC3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AD3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AE3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AF3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AG3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AH3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AI3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
       <c r="AJ3" s="3">
-        <f>'Aff Ref'!$A34</f>
-        <v>1996726.2015999998</v>
+        <f>'Aff Ref'!$A35</f>
+        <v>171900</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.45">
@@ -2578,144 +2973,144 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="C4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="D4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="E4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="F4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="G4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="H4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="I4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="J4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="K4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="L4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="M4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="N4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="O4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="P4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="Q4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="R4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="S4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="T4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="U4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="V4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="W4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="X4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="Y4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="Z4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AA4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AB4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AC4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AD4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AE4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AF4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AG4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AH4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AI4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
       <c r="AJ4" s="3">
-        <f>'Impr Forest Mgmt'!$A53</f>
-        <v>46881870.370370381</v>
+        <f>'Impr Forest Mgmt'!$A54</f>
+        <v>601649.99999999965</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.45">
